--- a/Mẫu câu/Diary.xlsx
+++ b/Mẫu câu/Diary.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="thursday 22-02-2024" sheetId="1" r:id="rId1"/>
     <sheet name="friday 23-02-2024" sheetId="2" r:id="rId2"/>
     <sheet name="Sartuday 24-02-2024" sheetId="3" r:id="rId3"/>
+    <sheet name="Sunday 25-02-2024" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">I love her so much; she knows, but she's chosen to ignore me. </t>
   </si>
@@ -150,6 +151,48 @@
   </si>
   <si>
     <t>I know I should go to bed early, but I think I can get up early the next morning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today I attended the wedding of my friend. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in the same class in secondary school. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used to be best friends. We liked to play games and play sports together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But in high school, we didn't study together anymore, so we met less often. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He married another friend of mine. She is my neighbor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three of us were in the same class in secondary school. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't know they were dating, but today is their wedding. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the wedding, I didn't know anyone there, so I had to have a meal with all the strangers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the meal, I talked to them, and I found out that they were the groom's relatives. They were very friendly. </t>
+  </si>
+  <si>
+    <t>At the end of the wedding, a friend of the bride asked me if she could get a ride from me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I said no because the bride asked me to stay and chat with her for a while. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The girl asking me to take her home said that me and she used to study English together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We only had one lesson together, and then I dropped out. </t>
+  </si>
+  <si>
+    <t>But I didn't remember.</t>
   </si>
 </sst>
 </file>
@@ -635,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -724,4 +767,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>